--- a/simulation/montecarlo/products/100.100.M.xlsx
+++ b/simulation/montecarlo/products/100.100.M.xlsx
@@ -1,55 +1,113 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="cashflow" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet r:id="rId1" sheetId="1" name="info"/>
+    <sheet r:id="rId2" sheetId="2" name="cashflow"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Starts</t>
+  </si>
+  <si>
+    <t>Ends</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Contribución</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>Initial amount</t>
+  </si>
+  <si>
+    <t>Simulation period of years</t>
+  </si>
+  <si>
+    <t>Expected return</t>
+  </si>
+  <si>
+    <t>Volatility</t>
+  </si>
+  <si>
+    <t>Distribution</t>
+  </si>
+  <si>
+    <t>Fat</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>Inflation mean</t>
+  </si>
+  <si>
+    <t>Inflation vol</t>
+  </si>
+  <si>
+    <t>Cartera</t>
+  </si>
+  <si>
+    <t>Conservador</t>
+  </si>
+  <si>
+    <t>Fee</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0%"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-    </font>
-    <font>
+      <sz val="10"/>
+      <color rgb="FFcccccc"/>
       <name val="Segoe UI"/>
       <family val="2"/>
-      <color rgb="FFcccccc"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -72,122 +130,60 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -475,124 +471,97 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="29.29071428571428" bestFit="1" customWidth="1" style="12" min="1" max="1"/>
-    <col width="17.43357142857143" bestFit="1" customWidth="1" style="13" min="2" max="2"/>
+    <col min="1" max="1" style="12" width="29.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="13" width="17.433571428571426" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.5" customHeight="1">
-      <c r="A1" s="8" t="inlineStr">
-        <is>
-          <t>Initial amount</t>
-        </is>
-      </c>
-      <c r="B1" s="9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" ht="19.5" customHeight="1">
-      <c r="A2" s="8" t="inlineStr">
-        <is>
-          <t>Simulation period of years</t>
-        </is>
-      </c>
-      <c r="B2" s="9" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" ht="19.5" customHeight="1">
-      <c r="A3" s="8" t="inlineStr">
-        <is>
-          <t>Expected return</t>
-        </is>
-      </c>
-      <c r="B3" s="10" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="4" ht="19.5" customHeight="1">
-      <c r="A4" s="8" t="inlineStr">
-        <is>
-          <t>Volatility</t>
-        </is>
-      </c>
-      <c r="B4" s="10" t="n">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+      <c r="A1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="9">
+        <v>10000</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="9">
+        <v>30</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="10">
+        <v>0.07</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="10">
         <v>0.1471</v>
       </c>
     </row>
-    <row r="5" ht="19.5" customHeight="1">
-      <c r="A5" s="8" t="inlineStr">
-        <is>
-          <t>Distribution</t>
-        </is>
-      </c>
-      <c r="B5" s="9" t="inlineStr">
-        <is>
-          <t>Fat</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="19.5" customHeight="1">
-      <c r="A6" s="8" t="inlineStr">
-        <is>
-          <t>df</t>
-        </is>
-      </c>
-      <c r="B6" s="9" t="n">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="7" ht="19.5" customHeight="1">
-      <c r="A7" s="11" t="inlineStr">
-        <is>
-          <t>Inflation mean</t>
-        </is>
-      </c>
-      <c r="B7" s="10" t="n">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="10">
         <v>0.0426</v>
       </c>
     </row>
-    <row r="8" ht="19.5" customHeight="1">
-      <c r="A8" s="11" t="inlineStr">
-        <is>
-          <t>Inflation vol</t>
-        </is>
-      </c>
-      <c r="B8" s="10" t="n">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="10">
         <v>0.0313</v>
       </c>
     </row>
-    <row r="9" ht="19.5" customHeight="1">
-      <c r="A9" s="11" t="inlineStr">
-        <is>
-          <t>Cartera</t>
-        </is>
-      </c>
-      <c r="B9" s="9" t="inlineStr">
-        <is>
-          <t>Conservador</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="19.5" customHeight="1">
-      <c r="A10" s="11" t="inlineStr">
-        <is>
-          <t>Fee</t>
-        </is>
-      </c>
-      <c r="B10" s="9" t="n">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="9">
         <v>2.5</v>
       </c>
     </row>
@@ -602,122 +571,113 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="2" max="2"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="3" max="3"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="4" max="4"/>
-    <col width="16.71928571428571" bestFit="1" customWidth="1" style="7" min="5" max="5"/>
+    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="16.719285714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.5" customFormat="1" customHeight="1" s="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Amount</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Starts</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Ends</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Reason</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="19.5" customFormat="1" customHeight="1" s="1">
-      <c r="A2" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="B2" s="5" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="n">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A2" s="4">
+        <v>1000</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4">
         <v>0</v>
       </c>
-      <c r="E2" s="5" t="inlineStr">
-        <is>
-          <t>Contribución</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="19.5" customFormat="1" customHeight="1" s="1">
-      <c r="A3" s="4" t="n"/>
-      <c r="B3" s="5" t="n"/>
-      <c r="C3" s="4" t="n"/>
-      <c r="D3" s="4" t="n"/>
-      <c r="E3" s="5" t="n"/>
-    </row>
-    <row r="4" ht="19.5" customFormat="1" customHeight="1" s="1">
-      <c r="A4" s="4" t="n"/>
-      <c r="B4" s="5" t="n"/>
-      <c r="C4" s="4" t="n"/>
-      <c r="D4" s="4" t="n"/>
-      <c r="E4" s="5" t="n"/>
-    </row>
-    <row r="5" ht="19.5" customFormat="1" customHeight="1" s="1">
-      <c r="A5" s="4" t="n"/>
-      <c r="B5" s="5" t="n"/>
-      <c r="C5" s="4" t="n"/>
-      <c r="D5" s="4" t="n"/>
-      <c r="E5" s="5" t="n"/>
-    </row>
-    <row r="6" ht="19.5" customFormat="1" customHeight="1" s="1">
-      <c r="A6" s="4" t="n"/>
-      <c r="B6" s="5" t="n"/>
-      <c r="C6" s="4" t="n"/>
-      <c r="D6" s="4" t="n"/>
-      <c r="E6" s="5" t="n"/>
-    </row>
-    <row r="7" ht="19.5" customFormat="1" customHeight="1" s="1">
-      <c r="A7" s="4" t="n"/>
-      <c r="B7" s="5" t="n"/>
-      <c r="C7" s="4" t="n"/>
-      <c r="D7" s="4" t="n"/>
-      <c r="E7" s="5" t="n"/>
-    </row>
-    <row r="8" ht="19.5" customFormat="1" customHeight="1" s="1">
-      <c r="A8" s="4" t="n"/>
-      <c r="B8" s="5" t="n"/>
-      <c r="C8" s="4" t="n"/>
-      <c r="D8" s="4" t="n"/>
-      <c r="E8" s="5" t="n"/>
-    </row>
-    <row r="9" ht="19.5" customFormat="1" customHeight="1" s="1">
-      <c r="A9" s="4" t="n"/>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="4" t="n"/>
-      <c r="D9" s="4" t="n"/>
-      <c r="E9" s="5" t="n"/>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A3" s="4">
+        <v>-20000</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
